--- a/output/케이스4~6체크2.xlsx
+++ b/output/케이스4~6체크2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
   <si>
     <t>ㅌ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2415,370 +2415,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>팥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅌ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅕ(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>같
-겉
-곁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-깥
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>꼍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>끝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>낱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>돝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>릍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>맡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>뭍
-밑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>밭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>뱉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>볕
-붙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>샅
-솥
-숱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>앝
-얕
-옅
-읕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>짙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>팥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>홑
-흩</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2885,320 +2522,6 @@
   </si>
   <si>
     <t>ㅖ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅖ(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>곈
-곌
-곕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>곗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>녠
-뎬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>롄
-롑
-롓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>볜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>셴
-셸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>솅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쏀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옌
-옐
-옘
-옙
-옛
-옜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>쳰
-촁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>톈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-폘
-폡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>폣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>혠
-혤
-혭</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5215,10 +4538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅏ(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㅓ(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5337,6 +4656,690 @@
   </si>
   <si>
     <t>쭁 / 뿅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅏ(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅌ(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>같
+겉
+곁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+깥
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>꼍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>끝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>돝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>릍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>맡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뭍
+밑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>밭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뱉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>볕
+붙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샅
+솥
+숱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>앝
+얕
+옅
+읕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>짙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>팥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>홑
+흩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>곈
+곌
+곕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>곗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>녠
+뎬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>롄
+롑
+롓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>볜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>셴
+셸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>솅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쏀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옌
+옐
+옘
+옙
+옛
+옜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쳰
+촁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>톈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">폘
+폡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>폣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혠
+혤
+혭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5509,9 +5512,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5543,6 +5543,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5829,7 +5832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z21" sqref="Z21"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5839,64 +5842,64 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5" t="s">
@@ -5906,29 +5909,29 @@
         <v>23</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>24</v>
@@ -5939,15 +5942,15 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="15" t="s">
-        <v>126</v>
+      <c r="D3" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -5961,13 +5964,13 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="15" t="s">
-        <v>153</v>
+      <c r="T3" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
       <c r="W3" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="X3" s="5"/>
     </row>
@@ -6005,13 +6008,13 @@
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G5" s="7"/>
@@ -6037,12 +6040,12 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F6" s="5"/>
@@ -6057,14 +6060,14 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="15" t="s">
-        <v>142</v>
+      <c r="R6" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -6073,14 +6076,14 @@
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="15" t="s">
-        <v>134</v>
+      <c r="F7" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -6135,24 +6138,24 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="15" t="s">
-        <v>107</v>
+      <c r="F9" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="15" t="s">
-        <v>106</v>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -6167,12 +6170,12 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>68</v>
       </c>
       <c r="F10" s="5"/>
@@ -6185,15 +6188,15 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="15" t="s">
-        <v>112</v>
+      <c r="U10" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -6247,12 +6250,12 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="15" t="s">
-        <v>117</v>
+      <c r="P12" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -6305,8 +6308,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="16" t="s">
-        <v>137</v>
+      <c r="L14" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -6371,7 +6374,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="4"/>
@@ -6417,7 +6420,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -6431,27 +6434,27 @@
       <c r="K18" s="4"/>
       <c r="L18" s="5"/>
       <c r="M18" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="15" t="s">
-        <v>150</v>
+      <c r="S18" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -6471,23 +6474,23 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="15" t="s">
-        <v>140</v>
+      <c r="T19" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="U19" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="V19" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="V19" s="11"/>
       <c r="W19" s="5"/>
       <c r="X19" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="7"/>
@@ -6515,7 +6518,7 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -6525,7 +6528,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="10" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="4"/>
@@ -6537,19 +6540,19 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="15" t="s">
-        <v>143</v>
+      <c r="T21" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="15" t="s">
-        <v>141</v>
+      <c r="W21" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -6568,10 +6571,10 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="S22" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
@@ -6594,8 +6597,8 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="22" t="s">
-        <v>160</v>
+      <c r="M23" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -6604,11 +6607,11 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="15" t="s">
-        <v>111</v>
+      <c r="U23" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -6617,7 +6620,7 @@
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="7"/>
@@ -6684,7 +6687,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I26" s="7"/>
@@ -6706,11 +6709,9 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>87</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -6754,7 +6755,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="15" t="s">
         <v>79</v>
       </c>
       <c r="Q28" s="4"/>
@@ -6782,7 +6783,7 @@
         <v>63</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="14" t="s">
         <v>80</v>
       </c>
       <c r="M29" s="7"/>
@@ -6800,10 +6801,10 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="AB32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AC32" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -6865,119 +6866,119 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V33" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="W33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="Z33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AA33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AB33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AC33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>51</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K34" s="14" t="s">
+      <c r="K34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M34" s="17" t="s">
+      <c r="M34" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="N34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P34" s="17" t="s">
+      <c r="P34" s="16" t="s">
         <v>85</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="S34" s="17" t="s">
-        <v>90</v>
+      <c r="S34" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U34" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="U34" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="V34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="W34" s="14" t="s">
-        <v>108</v>
-      </c>
       <c r="X34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Z34" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA34" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB34" s="14"/>
+      <c r="AA34" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
